--- a/data/trans_dic/IP04F-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP04F-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_dic/IP04F-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP04F-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -537,25 +527,22 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Niño</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>6,47%</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>3,1; 9,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>3,89; 10,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>3,44; 10,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>3,17; 10,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>3,88; 8,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,45</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,48</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,85</t>
+          <t>4,42; 9,29</t>
         </is>
       </c>
     </row>
@@ -742,47 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>8,61%</t>
         </is>
       </c>
     </row>
@@ -795,47 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>7,41; 13,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>7,55; 14,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>5,01; 10,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>4,61; 9,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>6,83; 11,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
+          <t>6,83; 11,06</t>
         </is>
       </c>
     </row>
@@ -852,47 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>6,96%</t>
         </is>
       </c>
     </row>
@@ -905,47 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>8,45; 16,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>3,47; 9,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>7,78; 16,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>5,18; 11,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>9,15; 15,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,43</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,4</t>
+          <t>5,01; 9,59</t>
         </is>
       </c>
     </row>
@@ -962,47 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>10,84%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>9,3; 17,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>8,02; 15,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>7,98; 15,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>6,88; 14,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>9,51; 15,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,38</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,4</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
+          <t>8,28; 14,14</t>
         </is>
       </c>
     </row>
@@ -1072,47 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>8,67; 12,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>7,45; 10,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,4; 10,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,4; 9,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>8,43; 11,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
+          <t>7,19; 9,73</t>
         </is>
       </c>
     </row>
@@ -1178,12 +997,12 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
